--- a/public/excel/writed_form1-2.xlsx
+++ b/public/excel/writed_form1-2.xlsx
@@ -13859,25 +13859,25 @@
     <row r="37" spans="1:32" customFormat="false" ht="25.5" customHeight="1">
       <c r="A37" s="560"/>
       <c r="B37" s="2" t="str">
-        <v>090001</v>
+        <v>090002</v>
       </c>
       <c r="C37" s="557"/>
       <c r="D37" s="2" t="str">
-        <v>Course1</v>
+        <v>Course2</v>
       </c>
       <c r="E37" s="303"/>
       <c r="F37" s="303"/>
       <c r="G37" s="303"/>
       <c r="H37" s="304"/>
       <c r="I37" s="2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" s="2" t="str">
-        <v>日</v>
+        <v>金</v>
       </c>
       <c r="K37" s="366"/>
       <c r="L37" s="2" t="str">
-        <v>2023-12-31 20:44</v>
+        <v>2023-07-21 10:53</v>
       </c>
       <c r="M37" s="583"/>
       <c r="N37" s="583"/>
@@ -13886,13 +13886,13 @@
         <v>65</v>
       </c>
       <c r="Q37" s="2" t="str">
-        <v>2023-12-31 23:47</v>
+        <v>2023-07-29 10:53</v>
       </c>
       <c r="R37" s="580"/>
       <c r="S37" s="580"/>
       <c r="T37" s="581"/>
       <c r="U37" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="V37" s="583"/>
       <c r="W37" s="583"/>
@@ -13908,41 +13908,30 @@
     </row>
     <row r="38" spans="1:32" customFormat="false" ht="25.5" customHeight="1">
       <c r="A38" s="560"/>
-      <c r="B38" s="2" t="str">
-        <v>090001</v>
-      </c>
+      <c r="B38" s="588"/>
       <c r="C38" s="589"/>
-      <c r="D38" s="2" t="str">
-        <v>Course1</v>
-      </c>
+      <c r="D38" s="294"/>
       <c r="E38" s="295"/>
       <c r="F38" s="295"/>
       <c r="G38" s="295"/>
       <c r="H38" s="296"/>
-      <c r="I38" s="2" t="str">
-        <v>1</v>
-      </c>
-      <c r="J38" s="2" t="str">
-        <v>月</v>
-      </c>
+      <c r="I38" s="85"/>
+      <c r="J38" s="612"/>
       <c r="K38" s="293"/>
-      <c r="L38" s="2" t="str">
-        <v>2023-07-03 20:44</v>
-      </c>
+      <c r="L38" s="592"/>
       <c r="M38" s="590"/>
       <c r="N38" s="590"/>
       <c r="O38" s="590"/>
       <c r="P38" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="Q38" s="2" t="str">
-        <v>2023-07-03 23:47</v>
-      </c>
+      <c r="Q38" s="590"/>
       <c r="R38" s="590"/>
       <c r="S38" s="590"/>
       <c r="T38" s="591"/>
-      <c r="U38" s="2">
-        <v>111</v>
+      <c r="U38" s="592">
+        <f t="shared" ref="U38:U51" si="0">$Q38-$L38</f>
+        <v>0</v>
       </c>
       <c r="V38" s="590"/>
       <c r="W38" s="590"/>

--- a/public/excel/writed_form1-2.xlsx
+++ b/public/excel/writed_form1-2.xlsx
@@ -13873,11 +13873,11 @@
         <v>2</v>
       </c>
       <c r="J37" s="2" t="str">
-        <v>金</v>
+        <v>土</v>
       </c>
       <c r="K37" s="366"/>
       <c r="L37" s="2" t="str">
-        <v>2023-07-21 10:53</v>
+        <v>2023-07-15 10:53</v>
       </c>
       <c r="M37" s="583"/>
       <c r="N37" s="583"/>
@@ -13886,13 +13886,13 @@
         <v>65</v>
       </c>
       <c r="Q37" s="2" t="str">
-        <v>2023-07-29 10:53</v>
+        <v>2023-07-15 14:53</v>
       </c>
       <c r="R37" s="580"/>
       <c r="S37" s="580"/>
       <c r="T37" s="581"/>
       <c r="U37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V37" s="583"/>
       <c r="W37" s="583"/>
@@ -13908,30 +13908,41 @@
     </row>
     <row r="38" spans="1:32" customFormat="false" ht="25.5" customHeight="1">
       <c r="A38" s="560"/>
-      <c r="B38" s="588"/>
+      <c r="B38" s="2" t="str">
+        <v>090002</v>
+      </c>
       <c r="C38" s="589"/>
-      <c r="D38" s="294"/>
+      <c r="D38" s="2" t="str">
+        <v>Course2</v>
+      </c>
       <c r="E38" s="295"/>
       <c r="F38" s="295"/>
       <c r="G38" s="295"/>
       <c r="H38" s="296"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="612"/>
+      <c r="I38" s="2" t="str">
+        <v>2</v>
+      </c>
+      <c r="J38" s="2" t="str">
+        <v>金</v>
+      </c>
       <c r="K38" s="293"/>
-      <c r="L38" s="592"/>
+      <c r="L38" s="2" t="str">
+        <v>2023-07-21 10:53</v>
+      </c>
       <c r="M38" s="590"/>
       <c r="N38" s="590"/>
       <c r="O38" s="590"/>
       <c r="P38" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="Q38" s="590"/>
+      <c r="Q38" s="2" t="str">
+        <v>2023-07-21 13:53</v>
+      </c>
       <c r="R38" s="590"/>
       <c r="S38" s="590"/>
       <c r="T38" s="591"/>
-      <c r="U38" s="592">
-        <f t="shared" ref="U38:U51" si="0">$Q38-$L38</f>
-        <v>0</v>
+      <c r="U38" s="2">
+        <v>5</v>
       </c>
       <c r="V38" s="590"/>
       <c r="W38" s="590"/>
@@ -13947,30 +13958,41 @@
     </row>
     <row r="39" spans="1:32" customFormat="false" ht="25.5" customHeight="1">
       <c r="A39" s="560"/>
-      <c r="B39" s="567"/>
+      <c r="B39" s="2" t="str">
+        <v>090002</v>
+      </c>
       <c r="C39" s="568"/>
-      <c r="D39" s="569"/>
+      <c r="D39" s="2" t="str">
+        <v>Course2</v>
+      </c>
       <c r="E39" s="570"/>
       <c r="F39" s="570"/>
       <c r="G39" s="570"/>
       <c r="H39" s="571"/>
-      <c r="I39" s="197"/>
-      <c r="J39" s="578"/>
+      <c r="I39" s="2" t="str">
+        <v>2</v>
+      </c>
+      <c r="J39" s="2" t="str">
+        <v>金</v>
+      </c>
       <c r="K39" s="579"/>
-      <c r="L39" s="574"/>
+      <c r="L39" s="2" t="str">
+        <v>2023-07-21 10:53</v>
+      </c>
       <c r="M39" s="572"/>
       <c r="N39" s="572"/>
       <c r="O39" s="572"/>
       <c r="P39" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="Q39" s="572"/>
+      <c r="Q39" s="2" t="str">
+        <v>2023-07-29 10:53</v>
+      </c>
       <c r="R39" s="572"/>
       <c r="S39" s="572"/>
       <c r="T39" s="573"/>
-      <c r="U39" s="574">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="U39" s="2">
+        <v>2</v>
       </c>
       <c r="V39" s="572"/>
       <c r="W39" s="572"/>

--- a/public/excel/writed_form1-2.xlsx
+++ b/public/excel/writed_form1-2.xlsx
@@ -13873,11 +13873,11 @@
         <v>2</v>
       </c>
       <c r="J37" s="2" t="str">
-        <v>土</v>
+        <v>木</v>
       </c>
       <c r="K37" s="366"/>
       <c r="L37" s="2" t="str">
-        <v>2023-07-15 10:53</v>
+        <v>2023-07-13 10:52</v>
       </c>
       <c r="M37" s="583"/>
       <c r="N37" s="583"/>
@@ -13886,13 +13886,13 @@
         <v>65</v>
       </c>
       <c r="Q37" s="2" t="str">
-        <v>2023-07-15 14:53</v>
+        <v>2023-07-13 13:52</v>
       </c>
       <c r="R37" s="580"/>
       <c r="S37" s="580"/>
       <c r="T37" s="581"/>
       <c r="U37" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V37" s="583"/>
       <c r="W37" s="583"/>
@@ -13923,11 +13923,11 @@
         <v>2</v>
       </c>
       <c r="J38" s="2" t="str">
-        <v>金</v>
+        <v>土</v>
       </c>
       <c r="K38" s="293"/>
       <c r="L38" s="2" t="str">
-        <v>2023-07-21 10:53</v>
+        <v>2023-07-15 10:53</v>
       </c>
       <c r="M38" s="590"/>
       <c r="N38" s="590"/>
@@ -13936,13 +13936,13 @@
         <v>65</v>
       </c>
       <c r="Q38" s="2" t="str">
-        <v>2023-07-21 13:53</v>
+        <v>2023-07-15 14:53</v>
       </c>
       <c r="R38" s="590"/>
       <c r="S38" s="590"/>
       <c r="T38" s="591"/>
       <c r="U38" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V38" s="590"/>
       <c r="W38" s="590"/>
@@ -13986,13 +13986,13 @@
         <v>65</v>
       </c>
       <c r="Q39" s="2" t="str">
-        <v>2023-07-29 10:53</v>
+        <v>2023-07-21 13:53</v>
       </c>
       <c r="R39" s="572"/>
       <c r="S39" s="572"/>
       <c r="T39" s="573"/>
       <c r="U39" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V39" s="572"/>
       <c r="W39" s="572"/>
@@ -14008,30 +14008,41 @@
     </row>
     <row r="40" spans="1:32" customFormat="false" ht="25.5" customHeight="1">
       <c r="A40" s="560"/>
-      <c r="B40" s="596"/>
+      <c r="B40" s="2" t="str">
+        <v>090002</v>
+      </c>
       <c r="C40" s="597"/>
-      <c r="D40" s="598"/>
+      <c r="D40" s="2" t="str">
+        <v>Course2</v>
+      </c>
       <c r="E40" s="599"/>
       <c r="F40" s="599"/>
       <c r="G40" s="599"/>
       <c r="H40" s="600"/>
-      <c r="I40" s="199"/>
-      <c r="J40" s="609"/>
+      <c r="I40" s="2" t="str">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <v>金</v>
+      </c>
       <c r="K40" s="366"/>
-      <c r="L40" s="603"/>
+      <c r="L40" s="2" t="str">
+        <v>2023-07-21 10:53</v>
+      </c>
       <c r="M40" s="604"/>
       <c r="N40" s="604"/>
       <c r="O40" s="604"/>
       <c r="P40" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="Q40" s="601"/>
+      <c r="Q40" s="2" t="str">
+        <v>2023-07-29 10:53</v>
+      </c>
       <c r="R40" s="601"/>
       <c r="S40" s="601"/>
       <c r="T40" s="602"/>
-      <c r="U40" s="603">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="U40" s="2">
+        <v>2</v>
       </c>
       <c r="V40" s="604"/>
       <c r="W40" s="604"/>
